--- a/output/Comparison Report.xlsx
+++ b/output/Comparison Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SUTD Term 6\50.048 Computational Data Science\CDS_Project\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ng Zheng Han\Documents\Ng Zheng Han\SUTD\Term 6\50.038 CDS\2d\CDS_Project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E93ED-C73A-4B1D-9DA9-E4B08B42554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87CFE04-212E-49F8-BEC1-558E501049C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1392" windowWidth="12156" windowHeight="11112" xr2:uid="{81A0EA14-42DA-4569-B622-257CA1F44D1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81A0EA14-42DA-4569-B622-257CA1F44D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +171,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CB129931-797D-40F2-A2D8-3F277F5310A4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1183,37 +1185,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.34699999999999998</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.313</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34799999999999998</c:v>
+                  <c:v>0.30399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35099999999999998</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,7 +1656,7 @@
                   <c:v>0.66600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74399999999999999</c:v>
+                  <c:v>0.70699999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,34 +2067,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.52</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.38800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35599999999999998</c:v>
+                  <c:v>0.38800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52100000000000002</c:v>
+                  <c:v>0.59399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.505</c:v>
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.498</c:v>
+                  <c:v>0.53400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45700000000000002</c:v>
+                  <c:v>0.56100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,37 +2508,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.56699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.61399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66600000000000004</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66300000000000003</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57099999999999995</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14214,8 +14219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11BCB8-A80E-4EE2-AC23-1D4039BDDD5B}">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14800,7 +14805,7 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>0.34699999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -14808,7 +14813,7 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -14816,7 +14821,7 @@
         <v>22</v>
       </c>
       <c r="B112">
-        <v>0.17100000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -14832,7 +14837,7 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <v>0.33400000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -14840,7 +14845,7 @@
         <v>23</v>
       </c>
       <c r="B115">
-        <v>0.34799999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -14848,7 +14853,7 @@
         <v>24</v>
       </c>
       <c r="B116">
-        <v>0.33900000000000002</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -14856,7 +14861,7 @@
         <v>25</v>
       </c>
       <c r="B117">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -14864,7 +14869,7 @@
         <v>26</v>
       </c>
       <c r="B118">
-        <v>0.35099999999999998</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -14872,7 +14877,7 @@
         <v>27</v>
       </c>
       <c r="B119">
-        <v>0.34200000000000003</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -14880,7 +14885,7 @@
         <v>28</v>
       </c>
       <c r="B120">
-        <v>0.34100000000000003</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -14981,7 +14986,7 @@
         <v>28</v>
       </c>
       <c r="B134">
-        <v>0.74399999999999999</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -15002,7 +15007,7 @@
         <v>3</v>
       </c>
       <c r="B138">
-        <v>0.52</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -15010,7 +15015,7 @@
         <v>7</v>
       </c>
       <c r="B139">
-        <v>0.36299999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -15018,7 +15023,7 @@
         <v>22</v>
       </c>
       <c r="B140">
-        <v>6.2E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -15026,7 +15031,7 @@
         <v>9</v>
       </c>
       <c r="B141">
-        <v>0.35599999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -15034,7 +15039,7 @@
         <v>10</v>
       </c>
       <c r="B142">
-        <v>0.52100000000000002</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -15042,7 +15047,7 @@
         <v>23</v>
       </c>
       <c r="B143">
-        <v>0.48299999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -15050,20 +15055,23 @@
         <v>24</v>
       </c>
       <c r="B144">
-        <v>0.505</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>25</v>
       </c>
+      <c r="B145">
+        <v>0.53200000000000003</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>26</v>
       </c>
       <c r="B146">
-        <v>0.498</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -15071,7 +15079,7 @@
         <v>27</v>
       </c>
       <c r="B147">
-        <v>0.45700000000000002</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -15079,7 +15087,7 @@
         <v>28</v>
       </c>
       <c r="B148">
-        <v>0.43</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -15100,7 +15108,7 @@
         <v>3</v>
       </c>
       <c r="B152">
-        <v>0.69399999999999995</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -15108,7 +15116,7 @@
         <v>7</v>
       </c>
       <c r="B153">
-        <v>0.64200000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -15116,7 +15124,7 @@
         <v>22</v>
       </c>
       <c r="B154">
-        <v>0.61</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -15124,7 +15132,7 @@
         <v>9</v>
       </c>
       <c r="B155">
-        <v>0.66500000000000004</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -15132,7 +15140,7 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>0.61399999999999999</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -15140,7 +15148,7 @@
         <v>23</v>
       </c>
       <c r="B157">
-        <v>0.54200000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -15148,7 +15156,7 @@
         <v>24</v>
       </c>
       <c r="B158">
-        <v>0.66600000000000004</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -15156,7 +15164,7 @@
         <v>25</v>
       </c>
       <c r="B159">
-        <v>0.64200000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -15164,7 +15172,7 @@
         <v>26</v>
       </c>
       <c r="B160">
-        <v>0.66300000000000003</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -15172,7 +15180,7 @@
         <v>27</v>
       </c>
       <c r="B161">
-        <v>0.57099999999999995</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -15180,7 +15188,7 @@
         <v>28</v>
       </c>
       <c r="B162">
-        <v>0.69</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15190,23 +15198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDAA72195E0A7445BB68E24F076A0E51" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24fbffa128b3e6daf27cd9d1eb5e72ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7ff981e-f6a0-4561-8233-d4f08400bde8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e9f248908f13d7fbba32413ad1a6b1b" ns3:_="">
     <xsd:import namespace="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
@@ -15388,31 +15379,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC47267-5BA7-4D14-A25D-B1AD61F85C1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15428,4 +15412,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/output/Comparison Report.xlsx
+++ b/output/Comparison Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ng Zheng Han\Documents\Ng Zheng Han\SUTD\Term 6\50.038 CDS\2d\CDS_Project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87CFE04-212E-49F8-BEC1-558E501049C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3231609-9EBA-41E8-B992-E9D9CC19040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81A0EA14-42DA-4569-B622-257CA1F44D1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="31">
   <si>
     <t>EDFnlp</t>
   </si>
@@ -336,7 +336,7 @@
                   <c:v>0.33561637226825503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70433729815887103</c:v>
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.43550214645712199</c:v>
@@ -2877,7 +2877,7 @@
                   <c:v>0.25821989874614598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56204835303654899</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39118283386569402</c:v>
@@ -3218,7 +3218,7 @@
                   <c:v>0.361865893604158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70554179366709002</c:v>
+                  <c:v>0.67200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.53276943290904499</c:v>
@@ -3559,7 +3559,7 @@
                   <c:v>0.38906195268676502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70751618610572498</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.49394500754054699</c:v>
@@ -4096,19 +4096,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>2709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>2373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>695</c:v>
+                  <c:v>6760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>581</c:v>
+                  <c:v>5795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,25 +4657,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>494</c:v>
+                  <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2051</c:v>
+                  <c:v>10834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1234</c:v>
+                  <c:v>4656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>568</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>507</c:v>
+                  <c:v>2366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,7 +4999,6 @@
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent1">
-                      <a:tint val="90000"/>
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
@@ -5007,7 +5006,6 @@
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent1">
-                      <a:tint val="90000"/>
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
@@ -5015,7 +5013,6 @@
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent1">
-                      <a:tint val="90000"/>
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -5043,6 +5040,56 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="83000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="83000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="83000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6CC8-4130-A080-EBD5BC7F0FD4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
@@ -5087,19 +5134,19 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6CC8-4130-A080-EBD5BC7F0FD4}"/>
+                <c16:uniqueId val="{0000000B-6CC8-4130-A080-EBD5BC7F0FD4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
+                      <a:tint val="48000"/>
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
@@ -5107,7 +5154,7 @@
                   </a:gs>
                   <a:gs pos="50000">
                     <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
+                      <a:tint val="48000"/>
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
@@ -5115,7 +5162,7 @@
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
+                      <a:tint val="48000"/>
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -5135,17 +5182,12 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6CC8-4130-A080-EBD5BC7F0FD4}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$26</c:f>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Anger</c:v>
                 </c:pt>
@@ -5156,12 +5198,15 @@
                   <c:v>Fear</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Happiness</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Neutral </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Sadness</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Surprise</c:v>
                 </c:pt>
               </c:strCache>
@@ -5169,27 +5214,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$26</c:f>
+              <c:f>Sheet1!$B$21:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1847</c:v>
+                  <c:v>7879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1154</c:v>
+                  <c:v>4718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>652</c:v>
+                  <c:v>2820</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13903</c:v>
+                  <c:v>7778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1557</c:v>
+                  <c:v>55298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1350</c:v>
+                  <c:v>6691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5635,19 +5683,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1310</c:v>
+                  <c:v>5194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2139</c:v>
+                  <c:v>8617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1320</c:v>
+                  <c:v>5160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>513</c:v>
+                  <c:v>2187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5895,7 +5943,7 @@
                   <c:v>0.32539529344594897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71332847768407104</c:v>
+                  <c:v>0.67600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.51810163752513405</c:v>
@@ -13648,15 +13696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>192742</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:colOff>219636</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>497542</xdr:colOff>
+      <xdr:colOff>524436</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14219,8 +14267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11BCB8-A80E-4EE2-AC23-1D4039BDDD5B}">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14243,7 +14291,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>275</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -14251,7 +14299,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>224</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14259,7 +14307,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>695</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14267,7 +14315,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>581</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14275,7 +14323,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -14296,7 +14344,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>494</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -14304,7 +14352,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -14312,7 +14360,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -14320,7 +14368,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2051</v>
+        <v>10834</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -14328,7 +14376,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1234</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -14336,7 +14384,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>568</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -14344,7 +14392,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>507</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -14365,7 +14413,7 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>1847</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -14373,7 +14421,7 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>1154</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -14381,31 +14429,39 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>652</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>13903</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>1557</v>
+        <v>55298</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>1350</v>
+      <c r="B27">
+        <v>5514</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -14426,7 +14482,7 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -14434,7 +14490,7 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>1310</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -14442,7 +14498,7 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>2139</v>
+        <v>8617</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -14450,7 +14506,7 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>1320</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -14458,7 +14514,7 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>513</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -14495,7 +14551,7 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>0.70433729815887103</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -14540,7 +14596,7 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>0.71332847768407104</v>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -14585,7 +14641,7 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>0.56204835303654899</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -14630,7 +14686,7 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>0.70554179366709002</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -14675,7 +14731,7 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>0.70751618610572498</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -15198,6 +15254,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDAA72195E0A7445BB68E24F076A0E51" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24fbffa128b3e6daf27cd9d1eb5e72ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7ff981e-f6a0-4561-8233-d4f08400bde8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e9f248908f13d7fbba32413ad1a6b1b" ns3:_="">
     <xsd:import namespace="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
@@ -15379,24 +15452,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC47267-5BA7-4D14-A25D-B1AD61F85C1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15412,28 +15492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/output/Comparison Report.xlsx
+++ b/output/Comparison Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ng Zheng Han\Documents\Ng Zheng Han\SUTD\Term 6\50.038 CDS\2d\CDS_Project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3231609-9EBA-41E8-B992-E9D9CC19040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D512431-131D-44A5-91EF-B5575816CE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81A0EA14-42DA-4569-B622-257CA1F44D1A}"/>
   </bookViews>
@@ -1294,6 +1294,7 @@
         <c:axId val="278885024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1735,6 +1736,7 @@
         <c:axId val="278868224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2176,6 +2178,7 @@
         <c:axId val="278887904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2617,6 +2620,7 @@
         <c:axId val="1830719136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2958,6 +2962,7 @@
         <c:axId val="1521021072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5182,6 +5187,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F878-4DC9-8CBB-B388FEA0ABBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -13912,15 +13922,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>434789</xdr:colOff>
+      <xdr:colOff>425825</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129989</xdr:colOff>
+      <xdr:colOff>121025</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14267,8 +14277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11BCB8-A80E-4EE2-AC23-1D4039BDDD5B}">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15254,23 +15264,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DDAA72195E0A7445BB68E24F076A0E51" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24fbffa128b3e6daf27cd9d1eb5e72ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7ff981e-f6a0-4561-8233-d4f08400bde8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e9f248908f13d7fbba32413ad1a6b1b" ns3:_="">
     <xsd:import namespace="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
@@ -15452,31 +15445,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7ff981e-f6a0-4561-8233-d4f08400bde8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FC47267-5BA7-4D14-A25D-B1AD61F85C1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15492,4 +15478,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A452C1E-D381-4D6A-89AE-EC9BE4131536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A89932-4168-4F38-977A-A643462B65D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d7ff981e-f6a0-4561-8233-d4f08400bde8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>